--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbrac\OneDrive\Documentos\Nutrição\Produtos\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79355B46-95E9-40FB-A1B7-065C94E4B14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B0D90-7F08-4D72-B913-EC0C14193E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{46E61FDE-D46F-403A-9B92-9F1BACAD4561}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>REQUEIJAO DIETCOST</t>
   </si>
   <si>
-    <t>Protein foods: Meat, poultry, seafood, eggs, legumes, nuts, seeds</t>
-  </si>
-  <si>
     <t>CAMARAO</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>PEIXE DIETCOST</t>
   </si>
   <si>
-    <t>Fats &amp; oils</t>
-  </si>
-  <si>
     <t>AZEITE DE OLIVA</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>OLEO DIETCOST</t>
   </si>
   <si>
-    <t>Sauces, dressings, spreads, sugars</t>
-  </si>
-  <si>
     <t>ACUCAR DIETCOST</t>
   </si>
   <si>
@@ -618,6 +609,15 @@
   </si>
   <si>
     <t>CERVEJA</t>
+  </si>
+  <si>
+    <t>Protein foods</t>
+  </si>
+  <si>
+    <t>Sauces/sugars</t>
+  </si>
+  <si>
+    <t>Fats/oils</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,6 +718,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2DB76AEF-9539-4548-83A1-EA89E0B82E6F}" name="Tabela1" displayName="Tabela1" ref="A1:D176" totalsRowShown="0">
   <autoFilter ref="A1:D176" xr:uid="{2DB76AEF-9539-4548-83A1-EA89E0B82E6F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D176">
+    <sortCondition ref="A1:A176"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9A6C1DF2-8D3A-4A23-8CDC-6DD8D4C0B825}" name="food_group"/>
     <tableColumn id="2" xr3:uid="{0DA0772B-2D50-4F25-B389-3BEAB09B3052}" name="food_name"/>
@@ -1058,7 +1061,7 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,30 +1086,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="C2">
-        <v>63001</v>
+        <v>85011</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>2505.6556</v>
@@ -1123,13 +1126,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C3">
-        <v>63007</v>
+        <v>79013</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1149,16 +1152,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C4">
-        <v>63009</v>
+        <v>79023</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>733</v>
@@ -1175,16 +1178,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C5">
-        <v>63010</v>
+        <v>79031</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>1333.3333</v>
@@ -1201,16 +1204,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C6">
-        <v>63011</v>
+        <v>82001</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>504.25</v>
@@ -1227,16 +1230,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C7">
-        <v>63012</v>
+        <v>82023</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <v>914.50476000000003</v>
@@ -1253,16 +1256,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C8">
-        <v>63021</v>
+        <v>82024</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>210.34444444444443</v>
@@ -1279,13 +1282,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C9">
-        <v>63029</v>
+        <v>82025</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1305,16 +1308,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C10">
-        <v>63036</v>
+        <v>82028</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>1620</v>
@@ -1331,16 +1334,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>64001</v>
+        <v>82047</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>205.00695999999999</v>
@@ -1357,16 +1360,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="C12">
-        <v>64005</v>
+        <v>82049</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
         <v>77</v>
@@ -1383,16 +1386,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="C13">
-        <v>64006</v>
+        <v>82058</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
         <v>77</v>
@@ -1409,16 +1412,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C14">
-        <v>64007</v>
+        <v>82080</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>77</v>
@@ -1435,16 +1438,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C15">
-        <v>64011</v>
+        <v>82134</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>110</v>
@@ -1461,16 +1464,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C16">
-        <v>64012</v>
+        <v>85004</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>249</v>
@@ -1487,16 +1490,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C17">
-        <v>65001</v>
+        <v>79001</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>2947.5</v>
@@ -1513,16 +1516,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="C18">
-        <v>65004</v>
+        <v>79003</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
         <v>733</v>
@@ -1539,13 +1542,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="C19">
-        <v>65006</v>
+        <v>79014</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1565,13 +1568,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>65007</v>
+        <v>79018</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1591,13 +1594,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C21">
-        <v>65008</v>
+        <v>79020</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1617,16 +1620,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C22">
-        <v>65014</v>
+        <v>79029</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <v>443.4</v>
@@ -1643,16 +1646,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="C23">
-        <v>65020</v>
+        <v>79032</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
         <v>2004.0688</v>
@@ -1669,13 +1672,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C24">
-        <v>65024</v>
+        <v>79034</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1695,13 +1698,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C25">
-        <v>65034</v>
+        <v>79035</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1721,16 +1724,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>65041</v>
+        <v>79036</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2">
         <v>2903</v>
@@ -1747,16 +1750,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>65048</v>
+        <v>79039</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
         <v>2420.7631000000001</v>
@@ -1773,16 +1776,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C28">
-        <v>66001</v>
+        <v>63036</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <v>1853.3333</v>
@@ -1799,13 +1802,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C29">
-        <v>66004</v>
+        <v>65008</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1825,16 +1828,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C30">
-        <v>66008</v>
+        <v>65020</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2">
         <v>1853.3333</v>
@@ -1851,16 +1854,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C31">
-        <v>66015</v>
+        <v>65024</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
         <v>1631.0833</v>
@@ -1877,16 +1880,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C32">
-        <v>66017</v>
+        <v>65041</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
         <v>1853.3333</v>
@@ -1903,16 +1906,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C33">
-        <v>67001</v>
+        <v>65048</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3">
         <v>337.41888999999998</v>
@@ -1929,16 +1932,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C34">
-        <v>67003</v>
+        <v>69001</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2">
         <v>337.41888999999998</v>
@@ -1955,16 +1958,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="C35">
-        <v>67005</v>
+        <v>69003</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="3">
         <v>349.4</v>
@@ -1981,16 +1984,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C36">
-        <v>67006</v>
+        <v>69005</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
         <v>307.5</v>
@@ -2007,13 +2010,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C37">
-        <v>67009</v>
+        <v>69006</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2033,13 +2036,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C38">
-        <v>67010</v>
+        <v>69008</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2059,16 +2062,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>67013</v>
+        <v>69009</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3">
         <v>107</v>
@@ -2085,16 +2088,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>67015</v>
+        <v>69012</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
         <v>337.41888999999998</v>
@@ -2111,16 +2114,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C41">
-        <v>67017</v>
+        <v>69017</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3">
         <v>377.33332999999999</v>
@@ -2137,16 +2140,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C42">
-        <v>67019</v>
+        <v>69032</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2">
         <v>107</v>
@@ -2163,13 +2166,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>67020</v>
+        <v>69043</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2189,13 +2192,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="C44">
-        <v>67033</v>
+        <v>69058</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -2215,16 +2218,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C45">
-        <v>67040</v>
+        <v>70038</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="3">
         <v>327.12705</v>
@@ -2241,16 +2244,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C46">
-        <v>67041</v>
+        <v>70043</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2">
         <v>335.30211000000003</v>
@@ -2267,13 +2270,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="C47">
-        <v>67042</v>
+        <v>70044</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2293,13 +2296,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C48">
-        <v>67043</v>
+        <v>70048</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -2319,16 +2322,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="C49">
-        <v>67045</v>
+        <v>77014</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>350.03447999999997</v>
@@ -2345,13 +2348,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C50">
-        <v>67047</v>
+        <v>78029</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2371,13 +2374,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="C51">
-        <v>67050</v>
+        <v>79009</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2397,16 +2400,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>67051</v>
+        <v>79010</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="2">
         <v>751.57997999999998</v>
@@ -2423,13 +2426,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C53">
-        <v>67052</v>
+        <v>79012</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -2449,13 +2452,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="C54">
-        <v>67054</v>
+        <v>80002</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -2475,16 +2478,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C55">
-        <v>67057</v>
+        <v>80005</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3">
         <v>209.15</v>
@@ -2501,16 +2504,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C56">
-        <v>67062</v>
+        <v>80014</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2">
         <v>209.15</v>
@@ -2527,13 +2530,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C57">
-        <v>68002</v>
+        <v>80022</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2553,16 +2556,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C58">
-        <v>68014</v>
+        <v>80025</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2">
         <v>257.66666666666669</v>
@@ -2579,16 +2582,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="C59">
-        <v>68020</v>
+        <v>80035</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="3">
         <v>80</v>
@@ -2605,13 +2608,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C60">
-        <v>68022</v>
+        <v>81005</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2631,16 +2634,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C61">
-        <v>68026</v>
+        <v>81021</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="3">
         <v>260.2</v>
@@ -2657,13 +2660,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C62">
-        <v>68027</v>
+        <v>81022</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -2683,16 +2686,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C63">
-        <v>68028</v>
+        <v>81026</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="3">
         <v>586.5</v>
@@ -2709,16 +2712,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C64">
-        <v>68030</v>
+        <v>81027</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2">
         <v>238.36403999999999</v>
@@ -2735,16 +2738,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C65">
-        <v>68031</v>
+        <v>81029</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65" s="3">
         <v>1020</v>
@@ -2761,13 +2764,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C66">
-        <v>68032</v>
+        <v>85009</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2787,16 +2790,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>68033</v>
+        <v>79015</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="3">
         <v>120</v>
@@ -2813,16 +2816,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>68034</v>
+        <v>79016</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2">
         <v>1330</v>
@@ -2839,16 +2842,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>68035</v>
+        <v>84001</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="3">
         <v>710</v>
@@ -2865,16 +2868,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="C70">
-        <v>68036</v>
+        <v>84002</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="2">
         <v>120.625</v>
@@ -2891,13 +2894,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>68037</v>
+        <v>84003</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2917,13 +2920,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>68039</v>
+        <v>84018</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2943,16 +2946,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="C73">
-        <v>68042</v>
+        <v>84036</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" s="3">
         <v>89.5</v>
@@ -2972,13 +2975,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C74">
-        <v>68043</v>
+        <v>66001</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2">
         <v>367.8</v>
@@ -2998,13 +3001,13 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C75">
-        <v>68044</v>
+        <v>66017</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="3">
         <v>1440</v>
@@ -3024,13 +3027,13 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="C76">
-        <v>68052</v>
+        <v>68002</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2">
         <v>569.78593000000001</v>
@@ -3050,13 +3053,13 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="C77">
-        <v>68063</v>
+        <v>68014</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="3">
         <v>3100</v>
@@ -3073,16 +3076,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>68067</v>
+        <v>68020</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2">
         <v>586.5</v>
@@ -3102,10 +3105,10 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>68077</v>
+        <v>68022</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3128,13 +3131,13 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>68078</v>
+        <v>68026</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2">
         <v>1328.25</v>
@@ -3151,13 +3154,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>69001</v>
+        <v>68027</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -3177,13 +3180,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C82">
-        <v>69003</v>
+        <v>68028</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3203,16 +3206,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>69004</v>
+        <v>68030</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>766.66750000000002</v>
@@ -3229,16 +3232,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>69005</v>
+        <v>68031</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="2">
         <v>2350</v>
@@ -3255,13 +3258,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="C85">
-        <v>69006</v>
+        <v>68032</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -3281,16 +3284,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C86">
-        <v>69008</v>
+        <v>68033</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" s="2">
         <v>2525</v>
@@ -3307,16 +3310,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>69009</v>
+        <v>68034</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" s="3">
         <v>2333.3332999999998</v>
@@ -3333,16 +3336,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>69012</v>
+        <v>68035</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" s="2">
         <v>2947.5</v>
@@ -3359,13 +3362,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>69017</v>
+        <v>68036</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -3385,16 +3388,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C90">
-        <v>69029</v>
+        <v>68037</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E90" s="2">
         <v>577.62404000000004</v>
@@ -3411,16 +3414,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>69032</v>
+        <v>68039</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>1601.99</v>
@@ -3437,13 +3440,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>69043</v>
+        <v>68042</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -3463,16 +3466,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C93">
-        <v>69058</v>
+        <v>68043</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" s="3">
         <v>1642.0833</v>
@@ -3489,16 +3492,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C94">
-        <v>70001</v>
+        <v>68044</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" s="2">
         <v>60</v>
@@ -3515,16 +3518,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C95">
-        <v>70006</v>
+        <v>68052</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" s="3">
         <v>44570</v>
@@ -3541,16 +3544,16 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C96">
-        <v>70012</v>
+        <v>68063</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" s="2">
         <v>2900</v>
@@ -3567,16 +3570,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C97">
-        <v>70033</v>
+        <v>68077</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" s="3">
         <v>1935.6666666666665</v>
@@ -3593,13 +3596,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C98">
-        <v>70036</v>
+        <v>68078</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -3619,13 +3622,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C99">
-        <v>70038</v>
+        <v>82021</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -3645,16 +3648,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C100">
-        <v>70043</v>
+        <v>63001</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2">
         <v>1560</v>
@@ -3671,13 +3674,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="C101">
-        <v>70044</v>
+        <v>63009</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -3697,13 +3700,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C102">
-        <v>70047</v>
+        <v>65001</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -3723,13 +3726,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C103">
-        <v>70048</v>
+        <v>65004</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -3749,13 +3752,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C104">
-        <v>71003</v>
+        <v>65006</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3775,16 +3778,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C105">
-        <v>71008</v>
+        <v>65007</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="3">
         <v>26937.633000000002</v>
@@ -3801,16 +3804,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="C106">
-        <v>71031</v>
+        <v>65014</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" s="2">
         <v>10100</v>
@@ -3827,16 +3830,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C107">
-        <v>71041</v>
+        <v>65034</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="3">
         <v>2925</v>
@@ -3853,16 +3856,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="C108">
-        <v>71054</v>
+        <v>69029</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" s="2">
         <v>2925</v>
@@ -3879,16 +3882,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C109">
-        <v>72601</v>
+        <v>80001</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="3">
         <v>4452.4273999999996</v>
@@ -3905,16 +3908,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C110">
-        <v>72621</v>
+        <v>80019</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110" s="2">
         <v>6320</v>
@@ -3931,16 +3934,16 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C111">
-        <v>76009</v>
+        <v>63010</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" s="3">
         <v>2857.8571428571427</v>
@@ -3957,16 +3960,16 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="C112">
-        <v>77001</v>
+        <v>63012</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" s="2">
         <v>4114.3333000000002</v>
@@ -3983,16 +3986,16 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C113">
-        <v>77004</v>
+        <v>63021</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="3">
         <v>1730.4937</v>
@@ -4009,13 +4012,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="C114">
-        <v>77005</v>
+        <v>63029</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -4035,16 +4038,16 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C115">
-        <v>77014</v>
+        <v>66004</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115" s="3">
         <v>1600</v>
@@ -4061,16 +4064,16 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C116">
-        <v>77015</v>
+        <v>66008</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="2">
         <v>3000</v>
@@ -4087,13 +4090,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B117" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C117">
-        <v>77030</v>
+        <v>66015</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -4113,16 +4116,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C118">
-        <v>78001</v>
+        <v>71003</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2">
         <v>2420.7631000000001</v>
@@ -4139,16 +4142,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="C119">
-        <v>78016</v>
+        <v>71008</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" s="3">
         <v>3320.9089509884666</v>
@@ -4165,16 +4168,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="C120">
-        <v>78029</v>
+        <v>71031</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E120" s="2">
         <v>3320.9090000000001</v>
@@ -4191,16 +4194,16 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C121">
-        <v>78033</v>
+        <v>71041</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" s="3">
         <v>3320.9090000000001</v>
@@ -4217,16 +4220,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C122">
-        <v>79001</v>
+        <v>71054</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" s="2">
         <v>3320.9090000000001</v>
@@ -4243,16 +4246,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="C123">
-        <v>79003</v>
+        <v>72601</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123" s="3">
         <v>1265.4625000000001</v>
@@ -4269,16 +4272,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C124">
-        <v>79009</v>
+        <v>72621</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124" s="2">
         <v>11000</v>
@@ -4295,16 +4298,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C125">
-        <v>79010</v>
+        <v>76009</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" s="3">
         <v>2004.0688</v>
@@ -4321,13 +4324,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C126">
-        <v>79012</v>
+        <v>77030</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -4347,13 +4350,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="C127">
-        <v>79013</v>
+        <v>78001</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -4373,13 +4376,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C128">
-        <v>79014</v>
+        <v>78016</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4399,16 +4402,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C129">
-        <v>79015</v>
+        <v>78033</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129" s="3">
         <v>794.44443999999999</v>
@@ -4425,16 +4428,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C130">
-        <v>79016</v>
+        <v>67047</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" s="2">
         <v>6025</v>
@@ -4451,13 +4454,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C131">
-        <v>79018</v>
+        <v>69004</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4477,13 +4480,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B132" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C132">
-        <v>79020</v>
+        <v>70001</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -4503,16 +4506,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C133">
-        <v>79023</v>
+        <v>70006</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E133" s="3">
         <v>8180</v>
@@ -4529,16 +4532,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C134">
-        <v>79029</v>
+        <v>70012</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134" s="2">
         <v>8180</v>
@@ -4555,16 +4558,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="B135" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C135">
-        <v>79031</v>
+        <v>70033</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135" s="3">
         <v>8970.1978999999992</v>
@@ -4581,13 +4584,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C136">
-        <v>79032</v>
+        <v>70036</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -4607,16 +4610,16 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C137">
-        <v>79034</v>
+        <v>70047</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" s="3">
         <v>3330.5108</v>
@@ -4633,13 +4636,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C138">
-        <v>79035</v>
+        <v>85002</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -4659,13 +4662,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="C139">
-        <v>79036</v>
+        <v>85003</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -4685,16 +4688,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="C140">
-        <v>79039</v>
+        <v>85010</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E140" s="2">
         <v>1408</v>
@@ -4711,16 +4714,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C141">
-        <v>80001</v>
+        <v>63007</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" s="3">
         <v>8180</v>
@@ -4737,16 +4740,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C142">
-        <v>80002</v>
+        <v>63011</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2">
         <v>2571.75</v>
@@ -4763,16 +4766,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="C143">
-        <v>80005</v>
+        <v>64001</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="3">
         <v>930</v>
@@ -4789,16 +4792,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C144">
-        <v>80014</v>
+        <v>64005</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" s="2">
         <v>2004.0688</v>
@@ -4815,16 +4818,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C145">
-        <v>80019</v>
+        <v>64006</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" s="3">
         <v>1796.328</v>
@@ -4841,16 +4844,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C146">
-        <v>80022</v>
+        <v>64007</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146" s="2">
         <v>3900</v>
@@ -4867,16 +4870,16 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C147">
-        <v>80025</v>
+        <v>64011</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" s="3">
         <v>1642.0833</v>
@@ -4893,16 +4896,16 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="C148">
-        <v>80035</v>
+        <v>64012</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148" s="2">
         <v>2571.75</v>
@@ -4919,13 +4922,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>81005</v>
+        <v>67001</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4945,16 +4948,16 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C150">
-        <v>81021</v>
+        <v>67003</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="2">
         <v>10200</v>
@@ -4971,13 +4974,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C151">
-        <v>81022</v>
+        <v>67005</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -4997,16 +5000,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C152">
-        <v>81026</v>
+        <v>67006</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152" s="2">
         <v>14550</v>
@@ -5023,13 +5026,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C153">
-        <v>81027</v>
+        <v>67009</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -5049,13 +5052,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C154">
-        <v>81029</v>
+        <v>67010</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -5075,13 +5078,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C155">
-        <v>82001</v>
+        <v>67013</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -5101,13 +5104,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C156">
-        <v>82021</v>
+        <v>67015</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -5127,16 +5130,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C157">
-        <v>82023</v>
+        <v>67017</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157" s="3">
         <v>477.7</v>
@@ -5153,16 +5156,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C158">
-        <v>82024</v>
+        <v>67019</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E158" s="2">
         <v>942.55691999999999</v>
@@ -5179,16 +5182,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C159">
-        <v>82025</v>
+        <v>67020</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159" s="3">
         <v>3320.9089509884666</v>
@@ -5205,13 +5208,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <v>82028</v>
+        <v>67033</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -5231,16 +5234,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="C161">
-        <v>82047</v>
+        <v>67040</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161" s="3">
         <v>9000</v>
@@ -5257,13 +5260,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="C162">
-        <v>82049</v>
+        <v>67041</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -5283,16 +5286,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="C163">
-        <v>82058</v>
+        <v>67042</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163" s="3">
         <v>330</v>
@@ -5309,16 +5312,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C164">
-        <v>82080</v>
+        <v>67043</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164" s="2">
         <v>260</v>
@@ -5335,13 +5338,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C165">
-        <v>82134</v>
+        <v>67045</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -5361,13 +5364,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C166">
-        <v>84001</v>
+        <v>67050</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -5387,16 +5390,16 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="C167">
-        <v>84002</v>
+        <v>67051</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" s="3">
         <v>2571.0720128824478</v>
@@ -5413,13 +5416,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C168">
-        <v>84003</v>
+        <v>67052</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -5439,13 +5442,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C169">
-        <v>84018</v>
+        <v>67054</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -5465,16 +5468,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="C170">
-        <v>84036</v>
+        <v>67057</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" s="2">
         <v>2571.0720128824478</v>
@@ -5491,16 +5494,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="C171">
-        <v>85002</v>
+        <v>67062</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171" s="3">
         <v>14500</v>
@@ -5517,13 +5520,13 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C172">
-        <v>85003</v>
+        <v>68067</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -5543,16 +5546,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C173">
-        <v>85004</v>
+        <v>77001</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173" s="3">
         <v>9000</v>
@@ -5569,16 +5572,16 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="C174">
-        <v>85009</v>
+        <v>77004</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="2">
         <v>5700</v>
@@ -5595,16 +5598,16 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C175">
-        <v>85010</v>
+        <v>77005</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175" s="3">
         <v>4200</v>
@@ -5621,16 +5624,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C176">
-        <v>85011</v>
+        <v>77015</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E176" s="4">
         <v>500</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbrac\OneDrive\Documentos\Nutrição\Produtos\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B0D90-7F08-4D72-B913-EC0C14193E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B62867-05B9-44E8-97E1-EE3ADD62DDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{46E61FDE-D46F-403A-9B92-9F1BACAD4561}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="202">
   <si>
     <t>food_group</t>
   </si>
@@ -618,6 +618,30 @@
   </si>
   <si>
     <t>Fats/oils</t>
+  </si>
+  <si>
+    <t>energy_kj_g</t>
+  </si>
+  <si>
+    <t>fat_g</t>
+  </si>
+  <si>
+    <t>sat_fat_g</t>
+  </si>
+  <si>
+    <t>CHO_g</t>
+  </si>
+  <si>
+    <t>sugars_g</t>
+  </si>
+  <si>
+    <t>fibre_g</t>
+  </si>
+  <si>
+    <t>protein_g</t>
+  </si>
+  <si>
+    <t>sodium_mg</t>
   </si>
 </sst>
 </file>
@@ -732,10 +756,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D23FA9D-5912-48C6-91CF-77428AC11C58}" name="Tabela2" displayName="Tabela2" ref="H1:H176" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="H1:H176" xr:uid="{2D23FA9D-5912-48C6-91CF-77428AC11C58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D23FA9D-5912-48C6-91CF-77428AC11C58}" name="Tabela2" displayName="Tabela2" ref="H1:O176" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="H1:O176" xr:uid="{2D23FA9D-5912-48C6-91CF-77428AC11C58}"/>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{C234105E-82AB-4180-B1DD-023FF7C9A015}" name="energy_kj_g"/>
+    <tableColumn id="3" xr3:uid="{E3851E72-850D-443B-A6D7-076E370FE275}" name="fat_g"/>
+    <tableColumn id="4" xr3:uid="{F514F4FB-F521-41CD-904E-6E85A97A1678}" name="sat_fat_g"/>
+    <tableColumn id="5" xr3:uid="{42BCF3AF-2CAC-4A5E-8F1F-7F5016E13ACD}" name="CHO_g"/>
+    <tableColumn id="6" xr3:uid="{5DFD3BE1-2040-4017-9482-4336ED95CF5D}" name="sugars_g"/>
+    <tableColumn id="7" xr3:uid="{F1483FBA-7C9F-4DFD-BD53-79A2B9E045DF}" name="fibre_g"/>
+    <tableColumn id="8" xr3:uid="{93B9FEE7-76AF-4312-A69B-ADEDED735F12}" name="protein_g"/>
+    <tableColumn id="9" xr3:uid="{5E2C9BA8-0116-4A7D-8C49-CE0453FCCEE8}" name="sodium_mg"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8AC2ABF6-C25D-42A6-8968-C4AFA664D079}" name="Tabela4" displayName="Tabela4" ref="P1:P176" totalsRowShown="0">
+  <autoFilter ref="P1:P176" xr:uid="{8AC2ABF6-C25D-42A6-8968-C4AFA664D079}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E070B1AF-00CF-4173-A485-075D6016D6B4}" name="price"/>
+    <tableColumn id="1" xr3:uid="{D5A3BD37-5FD9-4A56-8F7C-1842E0723CF5}" name="price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1058,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B814B2ED-F95A-493D-908E-4DED280B6FDF}">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1113,7 @@
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,10 +1136,34 @@
         <v>111</v>
       </c>
       <c r="H1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -1121,10 +1186,34 @@
         <v>10</v>
       </c>
       <c r="H2">
+        <v>1446.6427957799999</v>
+      </c>
+      <c r="I2">
+        <v>0.50016665999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K2">
+        <v>79.070328000000003</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="N2">
+        <v>7.0434742000000004</v>
+      </c>
+      <c r="O2">
+        <v>1.1226666999999999</v>
+      </c>
+      <c r="P2">
         <v>0.25781042896535827</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1147,10 +1236,34 @@
         <v>3.2495476999999999</v>
       </c>
       <c r="H3">
+        <v>578.61541737999994</v>
+      </c>
+      <c r="I3">
+        <v>0.60900003000000003</v>
+      </c>
+      <c r="J3">
+        <v>9.7439999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>28.55575</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="N3">
+        <v>6.5895834000000004</v>
+      </c>
+      <c r="O3">
+        <v>1.1156666</v>
+      </c>
+      <c r="P3">
         <v>0.40161245346869712</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -1173,10 +1286,34 @@
         <v>10</v>
       </c>
       <c r="H4">
+        <v>1185.9636224800001</v>
+      </c>
+      <c r="I4">
+        <v>1.17</v>
+      </c>
+      <c r="J4">
+        <v>0.40000001000000002</v>
+      </c>
+      <c r="K4">
+        <v>62.929164999999998</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>24.006665999999999</v>
+      </c>
+      <c r="N4">
+        <v>17.270834000000001</v>
+      </c>
+      <c r="O4">
+        <v>13.650333</v>
+      </c>
+      <c r="P4">
         <v>0.93428648915446166</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -1199,10 +1336,34 @@
         <v>7.5284217</v>
       </c>
       <c r="H5">
+        <v>1313.4691406200002</v>
+      </c>
+      <c r="I5">
+        <v>1.46</v>
+      </c>
+      <c r="J5">
+        <v>0.18961038999999999</v>
+      </c>
+      <c r="K5">
+        <v>61.005951000000003</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>18.688334000000001</v>
+      </c>
+      <c r="N5">
+        <v>23.497382999999999</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>1.3137700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1225,10 +1386,34 @@
         <v>26</v>
       </c>
       <c r="H6">
+        <v>301.383632186</v>
+      </c>
+      <c r="I6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+      <c r="K6">
+        <v>16.535651999999999</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.3200000999999999</v>
+      </c>
+      <c r="N6">
+        <v>2.0383477000000001</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>1.6444050254789868</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1251,10 +1436,34 @@
         <v>5.3898581999999999</v>
       </c>
       <c r="H7">
+        <v>369.45170516799999</v>
+      </c>
+      <c r="I7">
+        <v>0.13888890000000001</v>
+      </c>
+      <c r="J7">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="K7">
+        <v>20.273766999999999</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1.5866667000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.2717874</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0.45485999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -1277,10 +1486,34 @@
         <v>5.3898582166145301</v>
       </c>
       <c r="H8">
+        <v>552.92405167999993</v>
+      </c>
+      <c r="I8">
+        <v>0.22</v>
+      </c>
+      <c r="J8">
+        <v>4.5466670000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>32.589855</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.0855556000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.98014491999999998</v>
+      </c>
+      <c r="O8">
+        <v>1.9510337</v>
+      </c>
+      <c r="P8">
         <v>0.29754999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -1303,10 +1536,34 @@
         <v>5.3898581999999999</v>
       </c>
       <c r="H9">
+        <v>193.76994418599998</v>
+      </c>
+      <c r="I9">
+        <v>0.09</v>
+      </c>
+      <c r="J9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K9">
+        <v>11.111014000000001</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.3733331999999998</v>
+      </c>
+      <c r="N9">
+        <v>1.9456521</v>
+      </c>
+      <c r="O9">
+        <v>9.7200003000000006</v>
+      </c>
+      <c r="P9">
         <v>0.31189389080149277</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1329,10 +1586,34 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>128.18927193799999</v>
+      </c>
+      <c r="I10">
+        <v>0.21266666000000001</v>
+      </c>
+      <c r="J10">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="K10">
+        <v>7.5465074000000003</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2.9833333</v>
+      </c>
+      <c r="N10">
+        <v>1.1224928000000001</v>
+      </c>
+      <c r="O10">
+        <v>11.136666</v>
+      </c>
+      <c r="P10">
         <v>0.31309901607544793</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1355,10 +1636,34 @@
         <v>2.4283581999999999</v>
       </c>
       <c r="H11">
+        <v>1585.65675814</v>
+      </c>
+      <c r="I11">
+        <v>8.6000004000000008</v>
+      </c>
+      <c r="J11">
+        <v>1.5587289</v>
+      </c>
+      <c r="K11">
+        <v>64.5</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>9.5</v>
+      </c>
+      <c r="N11">
+        <v>15.6</v>
+      </c>
+      <c r="O11">
+        <v>4.5927218999999999</v>
+      </c>
+      <c r="P11">
         <v>1.0085452814200333</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -1381,10 +1686,34 @@
         <v>3.0946988000000002</v>
       </c>
       <c r="H12">
+        <v>1492.8322499999999</v>
+      </c>
+      <c r="I12">
+        <v>2.0316668</v>
+      </c>
+      <c r="J12">
+        <v>0.4593488</v>
+      </c>
+      <c r="K12">
+        <v>79.716446000000005</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.3766664999999998</v>
+      </c>
+      <c r="N12">
+        <v>7.0568843000000001</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0.32411758147512865</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1407,10 +1736,34 @@
         <v>3.0946988000000002</v>
       </c>
       <c r="H13">
+        <v>1458.99538876</v>
+      </c>
+      <c r="I13">
+        <v>0.41833332000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.15120481999999999</v>
+      </c>
+      <c r="K13">
+        <v>87.519492999999997</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>6.0250000999999997</v>
+      </c>
+      <c r="N13">
+        <v>1.687174</v>
+      </c>
+      <c r="O13">
+        <v>1.0255641</v>
+      </c>
+      <c r="P13">
         <v>0.33157953550764907</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1433,10 +1786,34 @@
         <v>3.0946988000000002</v>
       </c>
       <c r="H14">
+        <v>1678.586</v>
+      </c>
+      <c r="I14">
+        <v>6.0599999000000002</v>
+      </c>
+      <c r="J14">
+        <v>3.4538859999999998</v>
+      </c>
+      <c r="K14">
+        <v>75.639999000000003</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="N14">
+        <v>12.17</v>
+      </c>
+      <c r="O14">
+        <v>123.59299</v>
+      </c>
+      <c r="P14">
         <v>2.1017399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1459,10 +1836,34 @@
         <v>0.5</v>
       </c>
       <c r="H15">
+        <v>1503.9182430999999</v>
+      </c>
+      <c r="I15">
+        <v>1.6366666999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.44475239999999999</v>
+      </c>
+      <c r="K15">
+        <v>77.283439999999999</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2.6116666999999998</v>
+      </c>
+      <c r="N15">
+        <v>10.158226000000001</v>
+      </c>
+      <c r="O15">
+        <v>10.955</v>
+      </c>
+      <c r="P15">
         <v>0.48834398540371238</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1485,10 +1886,34 @@
         <v>1</v>
       </c>
       <c r="H16">
+        <v>1720.4459999999999</v>
+      </c>
+      <c r="I16">
+        <v>15.07</v>
+      </c>
+      <c r="J16">
+        <v>2.9</v>
+      </c>
+      <c r="K16">
+        <v>62.05</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.83</v>
+      </c>
+      <c r="N16">
+        <v>10.68</v>
+      </c>
+      <c r="O16">
+        <v>125.95</v>
+      </c>
+      <c r="P16">
         <v>1.92472</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1511,10 +1936,34 @@
         <v>5.52</v>
       </c>
       <c r="H17">
+        <v>1776.5383581399999</v>
+      </c>
+      <c r="I17">
+        <v>20.6</v>
+      </c>
+      <c r="J17">
+        <v>3.2259932</v>
+      </c>
+      <c r="K17">
+        <v>57.450001</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>7.8000002000000004</v>
+      </c>
+      <c r="O17">
+        <v>608.21356000000003</v>
+      </c>
+      <c r="P17">
         <v>1.2780100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1537,10 +1986,34 @@
         <v>10</v>
       </c>
       <c r="H18">
+        <v>2434.9543400000002</v>
+      </c>
+      <c r="I18">
+        <v>43.849997999999999</v>
+      </c>
+      <c r="J18">
+        <v>7.7830000000000004</v>
+      </c>
+      <c r="K18">
+        <v>30.190000999999999</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3.3</v>
+      </c>
+      <c r="N18">
+        <v>18.219999000000001</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+      <c r="P18">
         <v>7.3109998666802216</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1563,10 +2036,34 @@
         <v>13.54</v>
       </c>
       <c r="H19">
+        <v>37.125168935399998</v>
+      </c>
+      <c r="I19">
+        <v>0.12444445</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
+        <v>1.7912561</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.8722221999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.0820772999999999</v>
+      </c>
+      <c r="O19">
+        <v>4.2044443999999999</v>
+      </c>
+      <c r="P19">
         <v>1.0328509139505786</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1589,10 +2086,34 @@
         <v>8.4</v>
       </c>
       <c r="H20">
+        <v>115.14290387599999</v>
+      </c>
+      <c r="I20">
+        <v>0.54666667999999996</v>
+      </c>
+      <c r="J20">
+        <v>0.12</v>
+      </c>
+      <c r="K20">
+        <v>4.3334785</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3.1199998999999998</v>
+      </c>
+      <c r="N20">
+        <v>2.8731884999999999</v>
+      </c>
+      <c r="O20">
+        <v>9.0854997999999991</v>
+      </c>
+      <c r="P20">
         <v>0.67259000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1615,10 +2136,34 @@
         <v>8.4</v>
       </c>
       <c r="H21">
+        <v>113.526647416</v>
+      </c>
+      <c r="I21">
+        <v>0.25833333000000003</v>
+      </c>
+      <c r="J21">
+        <v>0.11994048</v>
+      </c>
+      <c r="K21">
+        <v>5.4299397000000003</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2.4200001000000002</v>
+      </c>
+      <c r="N21">
+        <v>1.9789493</v>
+      </c>
+      <c r="O21">
+        <v>3.9714176999999999</v>
+      </c>
+      <c r="P21">
         <v>0.84229000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1641,10 +2186,34 @@
         <v>9</v>
       </c>
       <c r="H22">
+        <v>82.013041291999997</v>
+      </c>
+      <c r="I22">
+        <v>0.14111111000000001</v>
+      </c>
+      <c r="J22">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="K22">
+        <v>4.4199519</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.9233332999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.1222706</v>
+      </c>
+      <c r="O22">
+        <v>3.3216667000000002</v>
+      </c>
+      <c r="P22">
         <v>0.24614</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1667,10 +2236,34 @@
         <v>10.397479000000001</v>
       </c>
       <c r="H23">
+        <v>66.306240000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.13</v>
+      </c>
+      <c r="J23">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="K23">
+        <v>3.6632609</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2.2216665999999998</v>
+      </c>
+      <c r="N23">
+        <v>1.1150724999999999</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>0.27601874793223052</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1693,10 +2286,34 @@
         <v>9.4401215999999994</v>
       </c>
       <c r="H24">
+        <v>43.790210646000006</v>
+      </c>
+      <c r="I24">
+        <v>0.09</v>
+      </c>
+      <c r="J24">
+        <v>3.0272730000000001E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.2345893000000001</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.0366666</v>
+      </c>
+      <c r="N24">
+        <v>0.69652175999999999</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>0.34992834187834432</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1719,10 +2336,34 @@
         <v>10.5</v>
       </c>
       <c r="H25">
+        <v>75.131726123999997</v>
+      </c>
+      <c r="I25">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.29E-2</v>
+      </c>
+      <c r="K25">
+        <v>4.1736956000000003</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.4</v>
+      </c>
+      <c r="N25">
+        <v>0.88963771000000003</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>0.22817999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1745,10 +2386,34 @@
         <v>10.397479000000001</v>
       </c>
       <c r="H26">
+        <v>95.022204185999996</v>
+      </c>
+      <c r="I26">
+        <v>0.22</v>
+      </c>
+      <c r="J26">
+        <v>4.0476390000000001E-2</v>
+      </c>
+      <c r="K26">
+        <v>6.1911592000000004</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>4.8266667999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.4021739</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>0.44929000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1771,10 +2436,34 @@
         <v>10.5</v>
       </c>
       <c r="H27">
+        <v>102.44836074199999</v>
+      </c>
+      <c r="I27">
+        <v>0.27190477000000002</v>
+      </c>
+      <c r="J27">
+        <v>4.9174259999999997E-2</v>
+      </c>
+      <c r="K27">
+        <v>5.2459211000000003</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1.6741667</v>
+      </c>
+      <c r="N27">
+        <v>1.0978882000000001</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>0.58133999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1797,10 +2486,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H28">
+        <v>112.299910814</v>
+      </c>
+      <c r="I28">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="J28">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="K28">
+        <v>6.5219583999999999</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>4.0766667999999999</v>
+      </c>
+      <c r="N28">
+        <v>1.774375</v>
+      </c>
+      <c r="O28">
+        <v>0.87092619999999998</v>
+      </c>
+      <c r="P28">
         <v>0.65607000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -1823,10 +2536,34 @@
         <v>19.065421000000001</v>
       </c>
       <c r="H29">
+        <v>74.216850707999996</v>
+      </c>
+      <c r="I29">
+        <v>0.16777777999999999</v>
+      </c>
+      <c r="J29">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K29">
+        <v>3.8174746000000002</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1.5972222</v>
+      </c>
+      <c r="N29">
+        <v>1.036081</v>
+      </c>
+      <c r="O29">
+        <v>3.1315</v>
+      </c>
+      <c r="P29">
         <v>0.4704339311927378</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -1849,10 +2586,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H30">
+        <v>111.608061292</v>
+      </c>
+      <c r="I30">
+        <v>0.15777777000000001</v>
+      </c>
+      <c r="J30">
+        <v>3.0766669999999999E-2</v>
+      </c>
+      <c r="K30">
+        <v>5.6857004</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>2.6477778000000001</v>
+      </c>
+      <c r="N30">
+        <v>1.9487439</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>0.72799000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -1875,10 +2636,34 @@
         <v>19.065421000000001</v>
       </c>
       <c r="H31">
+        <v>75.522413876000002</v>
+      </c>
+      <c r="I31">
+        <v>0.125</v>
+      </c>
+      <c r="J31">
+        <v>2.46E-2</v>
+      </c>
+      <c r="K31">
+        <v>4.5694927999999999</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>2.6916666</v>
+      </c>
+      <c r="N31">
+        <v>1.0055072</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>0.34820000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1901,10 +2686,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H32">
+        <v>171.416704186</v>
+      </c>
+      <c r="I32">
+        <v>0.13</v>
+      </c>
+      <c r="J32">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="K32">
+        <v>9.2065944999999996</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2.0433333</v>
+      </c>
+      <c r="N32">
+        <v>1.7600724999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.62300003000000004</v>
+      </c>
+      <c r="P32">
         <v>0.26978754840878999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1927,10 +2736,34 @@
         <v>2.1585074999999998</v>
       </c>
       <c r="H33">
+        <v>447.14504562000002</v>
+      </c>
+      <c r="I33">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="J33">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="K33">
+        <v>25.933440999999998</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1.9466667</v>
+      </c>
+      <c r="N33">
+        <v>1.1090580000000001</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>0.33872623084655057</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1953,10 +2786,34 @@
         <v>1.941791</v>
       </c>
       <c r="H34">
+        <v>155.60756775199999</v>
+      </c>
+      <c r="I34">
+        <v>0.21333334000000001</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>8.6282606000000008</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1.3633333000000001</v>
+      </c>
+      <c r="N34">
+        <v>0.86673915000000001</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>0.22214176292799354</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1979,10 +2836,34 @@
         <v>1.35</v>
       </c>
       <c r="H35">
+        <v>93.291988062000001</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>5.2466663999999996</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0.32499999000000002</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>0.39989684580435486</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2005,10 +2886,34 @@
         <v>1.2</v>
       </c>
       <c r="H36">
+        <v>168.86324000000002</v>
+      </c>
+      <c r="I36">
+        <v>7.3333330000000002E-2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>9.5421742999999992</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0.94</v>
+      </c>
+      <c r="N36">
+        <v>0.84782606000000005</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
         <v>0.28998000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2031,10 +2936,34 @@
         <v>1.25</v>
       </c>
       <c r="H37">
+        <v>209.04572143000001</v>
+      </c>
+      <c r="I37">
+        <v>0.33333333999999998</v>
+      </c>
+      <c r="J37">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>11.613473000000001</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1.1166666999999999</v>
+      </c>
+      <c r="N37">
+        <v>0.67967390999999999</v>
+      </c>
+      <c r="O37">
+        <v>2.8399999</v>
+      </c>
+      <c r="P37">
         <v>0.35703169934640522</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2057,10 +2986,34 @@
         <v>1.9417910447761193</v>
       </c>
       <c r="H38">
+        <v>317.22207062000001</v>
+      </c>
+      <c r="I38">
+        <v>6.2083335000000002</v>
+      </c>
+      <c r="J38">
+        <v>1.7</v>
+      </c>
+      <c r="K38">
+        <v>5.8404346</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>4.0266666000000004</v>
+      </c>
+      <c r="N38">
+        <v>1.1495652000000001</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>0.56429999999999991</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2083,10 +3036,34 @@
         <v>1.25</v>
       </c>
       <c r="H39">
+        <v>268.09935643399996</v>
+      </c>
+      <c r="I39">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.2</v>
+      </c>
+      <c r="K39">
+        <v>15.651889000000001</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2.0704999000000002</v>
+      </c>
+      <c r="N39">
+        <v>0.29027777999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.65899998000000004</v>
+      </c>
+      <c r="P39">
         <v>0.44303204737923174</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2109,10 +3086,34 @@
         <v>1.941791</v>
       </c>
       <c r="H40">
+        <v>183.17628747599997</v>
+      </c>
+      <c r="I40">
+        <v>0.25286666000000002</v>
+      </c>
+      <c r="J40">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K40">
+        <v>10.716907000000001</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1.8286667000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.56829344999999998</v>
+      </c>
+      <c r="O40">
+        <v>2.4434999999999998</v>
+      </c>
+      <c r="P40">
         <v>0.32945999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2135,10 +3136,34 @@
         <v>1.5</v>
       </c>
       <c r="H41">
+        <v>269.99351724799999</v>
+      </c>
+      <c r="I41">
+        <v>0.3145</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>15.958961</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2.1405001000000001</v>
+      </c>
+      <c r="N41">
+        <v>0.52845562000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.91893332999999999</v>
+      </c>
+      <c r="P41">
         <v>0.36564000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2161,10 +3186,34 @@
         <v>1.25</v>
       </c>
       <c r="H42">
+        <v>121.931206124</v>
+      </c>
+      <c r="I42">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>6.5246377000000004</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0.12666667000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.69702900000000001</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>0.16583000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2187,10 +3236,34 @@
         <v>1.25</v>
       </c>
       <c r="H43">
+        <v>101.30120418600001</v>
+      </c>
+      <c r="I43">
+        <v>0.15000000999999999</v>
+      </c>
+      <c r="J43">
+        <v>0.04</v>
+      </c>
+      <c r="K43">
+        <v>5.6999997999999996</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1.22</v>
+      </c>
+      <c r="N43">
+        <v>0.61000001000000004</v>
+      </c>
+      <c r="O43">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="P43">
         <v>0.34121000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2213,10 +3286,34 @@
         <v>1.5</v>
       </c>
       <c r="H44">
+        <v>226.04399999999998</v>
+      </c>
+      <c r="I44">
+        <v>0.23</v>
+      </c>
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+      <c r="K44">
+        <v>14</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>0.40000001000000002</v>
+      </c>
+      <c r="O44">
+        <v>0.49000000999999999</v>
+      </c>
+      <c r="P44">
         <v>0.83339999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -2239,10 +3336,34 @@
         <v>3.0946988000000002</v>
       </c>
       <c r="H45">
+        <v>238.57106964599998</v>
+      </c>
+      <c r="I45">
+        <v>0.20338887999999999</v>
+      </c>
+      <c r="J45">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="K45">
+        <v>13.706492000000001</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0.92683333000000001</v>
+      </c>
+      <c r="N45">
+        <v>0.54745168</v>
+      </c>
+      <c r="O45">
+        <v>3.9595001000000001</v>
+      </c>
+      <c r="P45">
         <v>0.86651</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2265,10 +3386,34 @@
         <v>1.5</v>
       </c>
       <c r="H46">
+        <v>210.66045418600001</v>
+      </c>
+      <c r="I46">
+        <v>0.52666663999999996</v>
+      </c>
+      <c r="J46">
+        <v>5.5166659999999999E-2</v>
+      </c>
+      <c r="K46">
+        <v>13.43154</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>5.7833332999999998</v>
+      </c>
+      <c r="N46">
+        <v>0.85637682999999998</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>0.40801999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -2291,10 +3436,34 @@
         <v>1.45</v>
       </c>
       <c r="H47">
+        <v>1660.7653607999998</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>99.025695999999996</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0.16</v>
+      </c>
+      <c r="O47">
+        <v>12.16</v>
+      </c>
+      <c r="P47">
         <v>0.21923267049425402</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -2317,10 +3486,34 @@
         <v>1.5</v>
       </c>
       <c r="H48">
+        <v>1542.0052338599999</v>
+      </c>
+      <c r="I48">
+        <v>0.62533331000000003</v>
+      </c>
+      <c r="J48">
+        <v>-2</v>
+      </c>
+      <c r="K48">
+        <v>90.016204999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0.66979164000000002</v>
+      </c>
+      <c r="O48">
+        <v>21.641183999999999</v>
+      </c>
+      <c r="P48">
         <v>1.04515</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -2343,10 +3536,34 @@
         <v>1.45</v>
       </c>
       <c r="H49">
+        <v>1455.79314062</v>
+      </c>
+      <c r="I49">
+        <v>5.2966666</v>
+      </c>
+      <c r="J49">
+        <v>1.6020179000000001</v>
+      </c>
+      <c r="K49">
+        <v>63.378334000000002</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>-2</v>
+      </c>
+      <c r="N49">
+        <v>11.648334</v>
+      </c>
+      <c r="O49">
+        <v>3644.7883000000002</v>
+      </c>
+      <c r="P49">
         <v>1.0177700000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2369,10 +3586,34 @@
         <v>33.5</v>
       </c>
       <c r="H50">
+        <v>1619.8145599999998</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>81.356667000000002</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>9.5333333000000007</v>
+      </c>
+      <c r="N50">
+        <v>8.9</v>
+      </c>
+      <c r="O50">
+        <v>532.55939999999998</v>
+      </c>
+      <c r="P50">
         <v>1.3999599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2395,10 +3636,34 @@
         <v>1.5</v>
       </c>
       <c r="H51">
+        <v>2116.2654949799999</v>
+      </c>
+      <c r="I51">
+        <v>24.848966000000001</v>
+      </c>
+      <c r="J51">
+        <v>14.367519</v>
+      </c>
+      <c r="K51">
+        <v>66.813793000000004</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>1.7868965999999999</v>
+      </c>
+      <c r="N51">
+        <v>4.5589655000000002</v>
+      </c>
+      <c r="O51">
+        <v>76.154768000000004</v>
+      </c>
+      <c r="P51">
         <v>2.8340533727414381</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2421,10 +3686,34 @@
         <v>0.8</v>
       </c>
       <c r="H52">
+        <v>1219.5772024799999</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>-2</v>
+      </c>
+      <c r="K52">
+        <v>74.123626999999999</v>
+      </c>
+      <c r="L52">
+        <v>60</v>
+      </c>
+      <c r="M52">
+        <v>3.7333333</v>
+      </c>
+      <c r="N52">
+        <v>0.57971013000000005</v>
+      </c>
+      <c r="O52">
+        <v>3.7</v>
+      </c>
+      <c r="P52">
         <v>1.3519625233046666</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -2447,10 +3736,34 @@
         <v>26</v>
       </c>
       <c r="H53">
+        <v>1646.8361109199998</v>
+      </c>
+      <c r="I53">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J53">
+        <v>-2</v>
+      </c>
+      <c r="K53">
+        <v>89.937668000000002</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>3.7894740000000003E-2</v>
+      </c>
+      <c r="N53">
+        <v>8.3563337000000004</v>
+      </c>
+      <c r="O53">
+        <v>235.04504</v>
+      </c>
+      <c r="P53">
         <v>3.7232399999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2473,10 +3786,34 @@
         <v>1.45</v>
       </c>
       <c r="H54">
+        <v>468.83199999999999</v>
+      </c>
+      <c r="I54">
+        <v>0.68000000999999999</v>
+      </c>
+      <c r="J54">
+        <v>0.2</v>
+      </c>
+      <c r="K54">
+        <v>25.27</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N54">
+        <v>2.1600001</v>
+      </c>
+      <c r="O54">
+        <v>247.666</v>
+      </c>
+      <c r="P54">
         <v>0.25958999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -2499,10 +3836,34 @@
         <v>1.2</v>
       </c>
       <c r="H55">
+        <v>1322.8723198600001</v>
+      </c>
+      <c r="I55">
+        <v>6.2576666000000003</v>
+      </c>
+      <c r="J55">
+        <v>1.3748142000000001</v>
+      </c>
+      <c r="K55">
+        <v>58.806426999999999</v>
+      </c>
+      <c r="L55">
+        <v>40</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>6.1195735999999998</v>
+      </c>
+      <c r="O55">
+        <v>120.08866999999999</v>
+      </c>
+      <c r="P55">
         <v>1.4592065894962627</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2525,10 +3886,34 @@
         <v>1.2333333</v>
       </c>
       <c r="H56">
+        <v>247.56562830999999</v>
+      </c>
+      <c r="I56">
+        <v>0.23999999</v>
+      </c>
+      <c r="J56">
+        <v>3.0139180000000002E-2</v>
+      </c>
+      <c r="K56">
+        <v>29.5</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1.75</v>
+      </c>
+      <c r="N56">
+        <v>3.47</v>
+      </c>
+      <c r="O56">
+        <v>5024.2084999999997</v>
+      </c>
+      <c r="P56">
         <v>1.9152957187054078</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2551,10 +3936,34 @@
         <v>4.1470096879308791</v>
       </c>
       <c r="H57">
+        <v>1281.2425079999998</v>
+      </c>
+      <c r="I57">
+        <v>30.497667</v>
+      </c>
+      <c r="J57">
+        <v>4.0999999000000003</v>
+      </c>
+      <c r="K57">
+        <v>7.8997501999999997</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.58125000999999998</v>
+      </c>
+      <c r="O57">
+        <v>786.82732999999996</v>
+      </c>
+      <c r="P57">
         <v>1.0349699999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2577,10 +3986,34 @@
         <v>4.1470096879308791</v>
       </c>
       <c r="H58">
+        <v>1794.97078124</v>
+      </c>
+      <c r="I58">
+        <v>17.236666</v>
+      </c>
+      <c r="J58">
+        <v>2.4739556</v>
+      </c>
+      <c r="K58">
+        <v>62.431652</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>5.6100000999999997</v>
+      </c>
+      <c r="N58">
+        <v>8.7916802999999994</v>
+      </c>
+      <c r="O58">
+        <v>1515.5265999999999</v>
+      </c>
+      <c r="P58">
         <v>0.63159596567241472</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2603,10 +4036,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H59">
+        <v>561.82168769999998</v>
+      </c>
+      <c r="I59">
+        <v>4.4713335000000001</v>
+      </c>
+      <c r="J59">
+        <v>3.4000001000000002</v>
+      </c>
+      <c r="K59">
+        <v>8.1111099999999995E-3</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>23.485001</v>
+      </c>
+      <c r="O59">
+        <v>43.053333000000002</v>
+      </c>
+      <c r="P59">
         <v>2.0737270811031787</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2629,10 +4086,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H60">
+        <v>554.15197291999993</v>
+      </c>
+      <c r="I60">
+        <v>5.4533334</v>
+      </c>
+      <c r="J60">
+        <v>2.75</v>
+      </c>
+      <c r="K60">
+        <v>1.3833333000000001</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>19.442222999999998</v>
+      </c>
+      <c r="O60">
+        <v>49.23</v>
+      </c>
+      <c r="P60">
         <v>1.5131148445437872</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -2655,10 +4136,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H61">
+        <v>775.03589072</v>
+      </c>
+      <c r="I61">
+        <v>11.121904000000001</v>
+      </c>
+      <c r="J61">
+        <v>4.5999999000000003</v>
+      </c>
+      <c r="K61">
+        <v>1.5019494</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>19.761147000000001</v>
+      </c>
+      <c r="O61">
+        <v>74.308166</v>
+      </c>
+      <c r="P61">
         <v>1.2984737903962218</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -2681,10 +4186,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H62">
+        <v>188.37</v>
+      </c>
+      <c r="I62">
+        <v>0.43000000999999999</v>
+      </c>
+      <c r="J62">
+        <v>0.1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>10.31</v>
+      </c>
+      <c r="O62">
+        <v>208.47309999999999</v>
+      </c>
+      <c r="P62">
         <v>2.0033100000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -2707,10 +4236,34 @@
         <v>4.0298141000000003</v>
       </c>
       <c r="H63">
+        <v>397.30653799200002</v>
+      </c>
+      <c r="I63">
+        <v>2.5689242000000001</v>
+      </c>
+      <c r="J63">
+        <v>0.80778707000000005</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>17.948212999999999</v>
+      </c>
+      <c r="O63">
+        <v>83.454701</v>
+      </c>
+      <c r="P63">
         <v>1.2781284266465642</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -2733,10 +4286,34 @@
         <v>1.0017757</v>
       </c>
       <c r="H64">
+        <v>448.62295477999999</v>
+      </c>
+      <c r="I64">
+        <v>2.0544446000000001</v>
+      </c>
+      <c r="J64">
+        <v>0.51300000999999995</v>
+      </c>
+      <c r="K64">
+        <v>21.655024000000001</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>4.7544446000000002</v>
+      </c>
+      <c r="N64">
+        <v>2.8927535999999998</v>
+      </c>
+      <c r="O64">
+        <v>301.89999</v>
+      </c>
+      <c r="P64">
         <v>0.70455000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2759,10 +4336,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H65">
+        <v>912.14338123999994</v>
+      </c>
+      <c r="I65">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="J65">
+        <v>5.1999997999999996</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="O65">
+        <v>62.876666999999998</v>
+      </c>
+      <c r="P65">
         <v>0.81242774725967104</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -2785,10 +4386,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H66">
+        <v>1125.5237684599999</v>
+      </c>
+      <c r="I66">
+        <v>16.632334</v>
+      </c>
+      <c r="J66">
+        <v>6.1199998999999998</v>
+      </c>
+      <c r="K66">
+        <v>16.112749000000001</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>13.684028</v>
+      </c>
+      <c r="O66">
+        <v>1354.0835</v>
+      </c>
+      <c r="P66">
         <v>1.3228599999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -2811,10 +4436,34 @@
         <v>4.0298141000000003</v>
       </c>
       <c r="H67">
+        <v>565.45651708000003</v>
+      </c>
+      <c r="I67">
+        <v>9.0450000999999993</v>
+      </c>
+      <c r="J67">
+        <v>2.6423595</v>
+      </c>
+      <c r="K67">
+        <v>2.1327777000000001</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>11.286667</v>
+      </c>
+      <c r="O67">
+        <v>160.71877000000001</v>
+      </c>
+      <c r="P67">
         <v>0.87611378729289713</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -2837,10 +4486,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H68">
+        <v>269.955131628</v>
+      </c>
+      <c r="I68">
+        <v>3.234</v>
+      </c>
+      <c r="J68">
+        <v>2.0128558000000001</v>
+      </c>
+      <c r="K68">
+        <v>5.9159999000000001</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2.9300001</v>
+      </c>
+      <c r="O68">
+        <v>63.759998000000003</v>
+      </c>
+      <c r="P68">
         <v>0.31607542544486394</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -2863,10 +4536,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H69">
+        <v>996.65168875999996</v>
+      </c>
+      <c r="I69">
+        <v>23.739666</v>
+      </c>
+      <c r="J69">
+        <v>11.82</v>
+      </c>
+      <c r="K69">
+        <v>4.1547631999999997</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1.9539032999999999</v>
+      </c>
+      <c r="O69">
+        <v>51.723998999999999</v>
+      </c>
+      <c r="P69">
         <v>1.0493699999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -2889,10 +4586,34 @@
         <v>1.8691589</v>
       </c>
       <c r="H70">
+        <v>314.91209349600001</v>
+      </c>
+      <c r="I70">
+        <v>2.1691666000000001</v>
+      </c>
+      <c r="J70">
+        <v>1.4</v>
+      </c>
+      <c r="K70">
+        <v>10.9215</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0.23333333000000001</v>
+      </c>
+      <c r="N70">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="O70">
+        <v>55.701667999999998</v>
+      </c>
+      <c r="P70">
         <v>0.89268000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -2915,10 +4636,34 @@
         <v>5.8996884735202491</v>
       </c>
       <c r="H71">
+        <v>2818.2017700199999</v>
+      </c>
+      <c r="I71">
+        <v>74.40258</v>
+      </c>
+      <c r="J71">
+        <v>44.933334000000002</v>
+      </c>
+      <c r="K71">
+        <v>0.51776831999999995</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0.38756501999999998</v>
+      </c>
+      <c r="O71">
+        <v>324.18112000000002</v>
+      </c>
+      <c r="P71">
         <v>2.3654299999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -2941,10 +4686,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H72">
+        <v>2680.13250414</v>
+      </c>
+      <c r="I72">
+        <v>71.140113999999997</v>
+      </c>
+      <c r="J72">
+        <v>19.233333999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>813.18433000000005</v>
+      </c>
+      <c r="P72">
         <v>0.86329000000000011</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -2967,10 +4736,34 @@
         <v>4.1470096999999999</v>
       </c>
       <c r="H73">
+        <v>1341.0741780800001</v>
+      </c>
+      <c r="I73">
+        <v>24.125191000000001</v>
+      </c>
+      <c r="J73">
+        <v>13.635464000000001</v>
+      </c>
+      <c r="K73">
+        <v>1.9707539000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>23.840388999999998</v>
+      </c>
+      <c r="O73">
+        <v>506.72849000000002</v>
+      </c>
+      <c r="P73">
         <v>2.5111048392666078</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2993,10 +4786,34 @@
         <v>2.2429907</v>
       </c>
       <c r="H74">
+        <v>1235.9232813199999</v>
+      </c>
+      <c r="I74">
+        <v>20.3825</v>
+      </c>
+      <c r="J74">
+        <v>8.1422223999999996</v>
+      </c>
+      <c r="K74">
+        <v>7.5351533999999996</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>20.417124000000001</v>
+      </c>
+      <c r="O74">
+        <v>665.85393999999997</v>
+      </c>
+      <c r="P74">
         <v>2.2573324078406918</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3019,10 +4836,34 @@
         <v>4.0298141000000003</v>
       </c>
       <c r="H75">
+        <v>1177.7547509000001</v>
+      </c>
+      <c r="I75">
+        <v>25.510334</v>
+      </c>
+      <c r="J75">
+        <v>14.909413000000001</v>
+      </c>
+      <c r="K75">
+        <v>3.0308177000000001</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>9.9098492</v>
+      </c>
+      <c r="O75">
+        <v>608.13085999999998</v>
+      </c>
+      <c r="P75">
         <v>2.2773467539695802</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3045,10 +4886,34 @@
         <v>1.6</v>
       </c>
       <c r="H76">
+        <v>356.64718744199996</v>
+      </c>
+      <c r="I76">
+        <v>2.4000001000000002</v>
+      </c>
+      <c r="J76">
+        <v>1.2171508</v>
+      </c>
+      <c r="K76">
+        <v>13.9</v>
+      </c>
+      <c r="L76">
+        <v>8</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76">
+        <v>65</v>
+      </c>
+      <c r="P76">
         <v>0.5875349476867332</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3071,10 +4936,34 @@
         <v>46</v>
       </c>
       <c r="H77">
+        <v>153.33783064599999</v>
+      </c>
+      <c r="I77">
+        <v>0.40000001000000002</v>
+      </c>
+      <c r="J77">
+        <v>0.25499999000000001</v>
+      </c>
+      <c r="K77">
+        <v>5.1377778000000003</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3.1199998999999998</v>
+      </c>
+      <c r="O77">
+        <v>51.139999000000003</v>
+      </c>
+      <c r="P77">
         <v>0.30704883045652531</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3097,10 +4986,34 @@
         <v>4.0298141000000003</v>
       </c>
       <c r="H78">
+        <v>201.16730106200001</v>
+      </c>
+      <c r="I78">
+        <v>0.41783333</v>
+      </c>
+      <c r="J78">
+        <v>0.26473071999999997</v>
+      </c>
+      <c r="K78">
+        <v>7.0369767999999997</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4.0371899999999998</v>
+      </c>
+      <c r="O78">
+        <v>68.898987000000005</v>
+      </c>
+      <c r="P78">
         <v>1.3738786462781685</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3123,10 +5036,34 @@
         <v>4.0298141000000003</v>
       </c>
       <c r="H79">
+        <v>1254.6511941599999</v>
+      </c>
+      <c r="I79">
+        <v>2.1211112000000001</v>
+      </c>
+      <c r="J79">
+        <v>0.68400000999999999</v>
+      </c>
+      <c r="K79">
+        <v>61.635478999999997</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2.6088889000000002</v>
+      </c>
+      <c r="N79">
+        <v>9.8278551000000007</v>
+      </c>
+      <c r="O79">
+        <v>681.90002000000004</v>
+      </c>
+      <c r="P79">
         <v>0.82353417105439364</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3149,10 +5086,34 @@
         <v>2.4926636000000002</v>
       </c>
       <c r="H80">
+        <v>2240.5424350399999</v>
+      </c>
+      <c r="I80">
+        <v>30.266666000000001</v>
+      </c>
+      <c r="J80">
+        <v>17.5</v>
+      </c>
+      <c r="K80">
+        <v>59.576667999999998</v>
+      </c>
+      <c r="L80">
+        <v>8</v>
+      </c>
+      <c r="M80">
+        <v>2.1700001000000002</v>
+      </c>
+      <c r="N80">
+        <v>7.2199998000000001</v>
+      </c>
+      <c r="O80">
+        <v>68.184997999999993</v>
+      </c>
+      <c r="P80">
         <v>1.089676251097454</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -3175,10 +5136,34 @@
         <v>57.5</v>
       </c>
       <c r="H81">
+        <v>1100.87672604</v>
+      </c>
+      <c r="I81">
+        <v>4.2348957</v>
+      </c>
+      <c r="J81">
+        <v>1.4015081</v>
+      </c>
+      <c r="K81">
+        <v>49.204600999999997</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>2.1604969999999999</v>
+      </c>
+      <c r="N81">
+        <v>8.0946721999999998</v>
+      </c>
+      <c r="O81">
+        <v>323.46280000000002</v>
+      </c>
+      <c r="P81">
         <v>1.3972114656143422</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3201,10 +5186,34 @@
         <v>3.7796941999999998</v>
       </c>
       <c r="H82">
+        <v>1520.51849586</v>
+      </c>
+      <c r="I82">
+        <v>3.3010001</v>
+      </c>
+      <c r="J82">
+        <v>0.89999998000000003</v>
+      </c>
+      <c r="K82">
+        <v>74.555901000000006</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>3.395</v>
+      </c>
+      <c r="N82">
+        <v>10.524100000000001</v>
+      </c>
+      <c r="O82">
+        <v>829.49230999999997</v>
+      </c>
+      <c r="P82">
         <v>1.64175</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -3227,10 +5236,34 @@
         <v>3.7796941999999998</v>
       </c>
       <c r="H83">
+        <v>1836.848195</v>
+      </c>
+      <c r="I83">
+        <v>13.676666000000001</v>
+      </c>
+      <c r="J83">
+        <v>4.4000000999999997</v>
+      </c>
+      <c r="K83">
+        <v>69.648109000000005</v>
+      </c>
+      <c r="L83">
+        <v>20</v>
+      </c>
+      <c r="M83">
+        <v>3.17625</v>
+      </c>
+      <c r="N83">
+        <v>10.869391</v>
+      </c>
+      <c r="O83">
+        <v>854.35668999999996</v>
+      </c>
+      <c r="P83">
         <v>1.215380551767534</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -3253,10 +5286,34 @@
         <v>33.5</v>
       </c>
       <c r="H84">
+        <v>1754.0874169000001</v>
+      </c>
+      <c r="I84">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="J84">
+        <v>5.9815969000000004</v>
+      </c>
+      <c r="K84">
+        <v>54.416668000000001</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>8.3333340000000006E-2</v>
+      </c>
+      <c r="N84">
+        <v>6.4866666999999998</v>
+      </c>
+      <c r="O84">
+        <v>331.93203999999997</v>
+      </c>
+      <c r="P84">
         <v>1.7022927864556769</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -3279,10 +5336,34 @@
         <v>3.7796941999999998</v>
       </c>
       <c r="H85">
+        <v>1021.47751524</v>
+      </c>
+      <c r="I85">
+        <v>15.561</v>
+      </c>
+      <c r="J85">
+        <v>3.4887568999999998</v>
+      </c>
+      <c r="K85">
+        <v>13.949583000000001</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>12.043749999999999</v>
+      </c>
+      <c r="O85">
+        <v>710.63733000000002</v>
+      </c>
+      <c r="P85">
         <v>1.4710785478547852</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3305,10 +5386,34 @@
         <v>46</v>
       </c>
       <c r="H86">
+        <v>1678.8783920999999</v>
+      </c>
+      <c r="I86">
+        <v>31.932371</v>
+      </c>
+      <c r="J86">
+        <v>9.5733336999999992</v>
+      </c>
+      <c r="K86">
+        <v>2.4506945999999998</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>25.968934999999998</v>
+      </c>
+      <c r="O86">
+        <v>1919.0844999999999</v>
+      </c>
+      <c r="P86">
         <v>0.75316101388050694</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3331,10 +5436,34 @@
         <v>46</v>
       </c>
       <c r="H87">
+        <v>1228.9949489999999</v>
+      </c>
+      <c r="I87">
+        <v>22.928315999999999</v>
+      </c>
+      <c r="J87">
+        <v>5.2157226000000003</v>
+      </c>
+      <c r="K87">
+        <v>0.86331075000000002</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>20.947102000000001</v>
+      </c>
+      <c r="O87">
+        <v>1533.0603000000001</v>
+      </c>
+      <c r="P87">
         <v>1.2692909062793591</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -3357,10 +5486,34 @@
         <v>5.52</v>
       </c>
       <c r="H88">
+        <v>188.37</v>
+      </c>
+      <c r="I88">
+        <v>1.0599999</v>
+      </c>
+      <c r="J88">
+        <v>0.11681933</v>
+      </c>
+      <c r="K88">
+        <v>9.0100002000000003</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>3.6400001</v>
+      </c>
+      <c r="N88">
+        <v>1.61</v>
+      </c>
+      <c r="O88">
+        <v>488.63269000000003</v>
+      </c>
+      <c r="P88">
         <v>1.1446714737684731</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -3383,10 +5536,34 @@
         <v>5.52</v>
       </c>
       <c r="H89">
+        <v>506.27204445999996</v>
+      </c>
+      <c r="I89">
+        <v>5.6963334000000003</v>
+      </c>
+      <c r="J89">
+        <v>1.4016666</v>
+      </c>
+      <c r="K89">
+        <v>2.3155277000000001</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>15.10375</v>
+      </c>
+      <c r="O89">
+        <v>1201.9856</v>
+      </c>
+      <c r="P89">
         <v>2.6693199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3409,10 +5586,34 @@
         <v>8.4</v>
       </c>
       <c r="H90">
+        <v>1041.8535399999998</v>
+      </c>
+      <c r="I90">
+        <v>2.5446667999999999</v>
+      </c>
+      <c r="J90">
+        <v>0.48757299999999998</v>
+      </c>
+      <c r="K90">
+        <v>48.592300000000002</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>5.2886667000000003</v>
+      </c>
+      <c r="N90">
+        <v>10.549033</v>
+      </c>
+      <c r="O90">
+        <v>495.44009</v>
+      </c>
+      <c r="P90">
         <v>1.982406299810247</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3435,10 +5636,34 @@
         <v>5.52</v>
       </c>
       <c r="H91">
+        <v>145.00303581400001</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>8.6599997999999996</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>6.1496668000000003</v>
+      </c>
+      <c r="P91">
         <v>0.28147654199143562</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3461,10 +5686,34 @@
         <v>10.397479000000001</v>
       </c>
       <c r="H92">
+        <v>103.94428644599999</v>
+      </c>
+      <c r="I92">
+        <v>1.0782999999999999E-2</v>
+      </c>
+      <c r="J92">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="K92">
+        <v>6.1626158000000002</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>2.0975000000000001E-2</v>
+      </c>
+      <c r="O92">
+        <v>1.6872819999999999</v>
+      </c>
+      <c r="P92">
         <v>2.5848351711758477</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -3487,10 +5736,34 @@
         <v>11.427273</v>
       </c>
       <c r="H93">
+        <v>1370.6638399999999</v>
+      </c>
+      <c r="I93">
+        <v>0.04</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>81.37</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0.1</v>
+      </c>
+      <c r="N93">
+        <v>0.45</v>
+      </c>
+      <c r="O93">
+        <v>404</v>
+      </c>
+      <c r="P93">
         <v>2.87032</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -3513,10 +5786,34 @@
         <v>0</v>
       </c>
       <c r="H94">
+        <v>33.580649993800002</v>
+      </c>
+      <c r="I94">
+        <v>5.5466670000000003E-2</v>
+      </c>
+      <c r="J94">
+        <v>5.5466700000000001E-3</v>
+      </c>
+      <c r="K94">
+        <v>1.3437333</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="O94">
+        <v>0.82186667000000002</v>
+      </c>
+      <c r="P94">
         <v>1.7464883953089594</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3539,10 +5836,34 @@
         <v>33.5</v>
       </c>
       <c r="H95">
+        <v>12.725440000000001</v>
+      </c>
+      <c r="I95">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0.64300000999999996</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
         <v>1.0694501281415221</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3565,10 +5886,34 @@
         <v>33.5</v>
       </c>
       <c r="H96">
+        <v>244.31728812399999</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>14.708</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>0.23333333000000001</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>9.5833329999999997</v>
+      </c>
+      <c r="P96">
         <v>0.59883141497608461</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3591,10 +5936,34 @@
         <v>7.5284216775458965</v>
       </c>
       <c r="H97">
+        <v>3.8511200837200001</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0.23</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="P97">
         <v>0.31963227828080765</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -3617,10 +5986,34 @@
         <v>5.52</v>
       </c>
       <c r="H98">
+        <v>3767.4</v>
+      </c>
+      <c r="I98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <v>14.9</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
         <v>2.8359800000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3643,10 +6036,34 @@
         <v>33.5</v>
       </c>
       <c r="H99">
+        <v>3731.9864399999997</v>
+      </c>
+      <c r="I99">
+        <v>99.06</v>
+      </c>
+      <c r="J99">
+        <v>82.474999999999994</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
         <v>0.39725005938852392</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -3669,10 +6086,34 @@
         <v>33.5</v>
       </c>
       <c r="H100">
+        <v>3767.4</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
         <v>0.78070982626583385</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -3695,10 +6136,34 @@
         <v>9.4401215805471121</v>
       </c>
       <c r="H101">
+        <v>3767.4</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
         <v>1.4592065894962627</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -3721,10 +6186,34 @@
         <v>7.2333333</v>
       </c>
       <c r="H102">
+        <v>3767.4</v>
+      </c>
+      <c r="I102">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
         <v>1.9152957187054078</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -3747,10 +6236,34 @@
         <v>33.5</v>
       </c>
       <c r="H103">
+        <v>3767.4</v>
+      </c>
+      <c r="I103">
+        <v>100</v>
+      </c>
+      <c r="J103">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
         <v>1.0349699999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -3773,10 +6286,34 @@
         <v>112.26701</v>
       </c>
       <c r="H104">
+        <v>3767.4</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
         <v>0.63159596567241472</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -3799,10 +6336,34 @@
         <v>112.26701</v>
       </c>
       <c r="H105">
+        <v>3767.4</v>
+      </c>
+      <c r="I105">
+        <v>100</v>
+      </c>
+      <c r="J105">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
         <v>2.0737270811031787</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -3825,10 +6386,34 @@
         <v>79.706149999999994</v>
       </c>
       <c r="H106">
+        <v>3767.4</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
         <v>1.5131148445437872</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -3851,10 +6436,34 @@
         <v>79.706149999999994</v>
       </c>
       <c r="H107">
+        <v>3767.4</v>
+      </c>
+      <c r="I107">
+        <v>100</v>
+      </c>
+      <c r="J107">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
         <v>1.2984737903962218</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -3877,10 +6486,34 @@
         <v>79.706149999999994</v>
       </c>
       <c r="H108">
+        <v>3767.4</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
         <v>2.0033100000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -3903,10 +6536,34 @@
         <v>227.27172999999999</v>
       </c>
       <c r="H109">
+        <v>3767.4</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
         <v>1.2781284266465642</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -3929,10 +6586,34 @@
         <v>208.95435000000001</v>
       </c>
       <c r="H110">
+        <v>3767.4</v>
+      </c>
+      <c r="I110">
+        <v>100</v>
+      </c>
+      <c r="J110">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
         <v>0.70455000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -3955,10 +6636,34 @@
         <v>208.95434557966715</v>
       </c>
       <c r="H111">
+        <v>3767.4</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
         <v>0.81242774725967104</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>191</v>
       </c>
@@ -3981,10 +6686,34 @@
         <v>131</v>
       </c>
       <c r="H112">
+        <v>3767.4</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
         <v>1.3228599999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>191</v>
       </c>
@@ -4007,10 +6736,34 @@
         <v>5</v>
       </c>
       <c r="H113">
+        <v>3767.4</v>
+      </c>
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
         <v>0.87611378729289713</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>191</v>
       </c>
@@ -4033,10 +6786,34 @@
         <v>5</v>
       </c>
       <c r="H114">
+        <v>3767.4</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
         <v>0.31607542544486394</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>191</v>
       </c>
@@ -4059,10 +6836,34 @@
         <v>5.52</v>
       </c>
       <c r="H115">
+        <v>3767.4</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
         <v>1.0493699999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>191</v>
       </c>
@@ -4085,10 +6886,34 @@
         <v>33.5</v>
       </c>
       <c r="H116">
+        <v>3767.4</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
         <v>0.89268000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>191</v>
       </c>
@@ -4111,10 +6936,34 @@
         <v>52</v>
       </c>
       <c r="H117">
+        <v>3767.4</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
         <v>2.3654299999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -4137,10 +6986,34 @@
         <v>10.5</v>
       </c>
       <c r="H118">
+        <v>3767.4</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
         <v>0.86329000000000011</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>191</v>
       </c>
@@ -4163,10 +7036,34 @@
         <v>26.5</v>
       </c>
       <c r="H119">
+        <v>3767.4</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+      <c r="J119">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
         <v>2.5111048392666078</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>191</v>
       </c>
@@ -4189,10 +7086,34 @@
         <v>26.5</v>
       </c>
       <c r="H120">
+        <v>3767.4</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+      <c r="J120">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
         <v>2.2573324078406918</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>191</v>
       </c>
@@ -4215,10 +7136,34 @@
         <v>26.5</v>
       </c>
       <c r="H121">
+        <v>3767.4</v>
+      </c>
+      <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="J121">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
         <v>2.2773467539695802</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -4241,10 +7186,34 @@
         <v>26.5</v>
       </c>
       <c r="H122">
+        <v>3767.4</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="J122">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
         <v>0.5875349476867332</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>191</v>
       </c>
@@ -4267,10 +7236,34 @@
         <v>8.4665446000000006</v>
       </c>
       <c r="H123">
+        <v>3767.4</v>
+      </c>
+      <c r="I123">
+        <v>100</v>
+      </c>
+      <c r="J123">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
         <v>0.30704883045652531</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>191</v>
       </c>
@@ -4293,10 +7286,34 @@
         <v>27.091942</v>
       </c>
       <c r="H124">
+        <v>3767.4</v>
+      </c>
+      <c r="I124">
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
         <v>1.3738786462781685</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>191</v>
       </c>
@@ -4319,10 +7336,34 @@
         <v>10.397479000000001</v>
       </c>
       <c r="H125">
+        <v>3767.4</v>
+      </c>
+      <c r="I125">
+        <v>100</v>
+      </c>
+      <c r="J125">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
         <v>0.82353417105439364</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>191</v>
       </c>
@@ -4345,10 +7386,34 @@
         <v>45.35</v>
       </c>
       <c r="H126">
+        <v>3767.4</v>
+      </c>
+      <c r="I126">
+        <v>100</v>
+      </c>
+      <c r="J126">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
         <v>1.089676251097454</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>191</v>
       </c>
@@ -4371,10 +7436,34 @@
         <v>25.8</v>
       </c>
       <c r="H127">
+        <v>3767.4</v>
+      </c>
+      <c r="I127">
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
         <v>1.3972114656143422</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>191</v>
       </c>
@@ -4397,10 +7486,34 @@
         <v>57.5</v>
       </c>
       <c r="H128">
+        <v>3767.4</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
         <v>1.64175</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>191</v>
       </c>
@@ -4423,10 +7536,34 @@
         <v>57.5</v>
       </c>
       <c r="H129">
+        <v>3767.4</v>
+      </c>
+      <c r="I129">
+        <v>100</v>
+      </c>
+      <c r="J129">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
         <v>1.215380551767534</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>192</v>
       </c>
@@ -4449,10 +7586,34 @@
         <v>115</v>
       </c>
       <c r="H130">
+        <v>3767.4</v>
+      </c>
+      <c r="I130">
+        <v>100</v>
+      </c>
+      <c r="J130">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
         <v>1.7022927864556769</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -4475,10 +7636,34 @@
         <v>28.3</v>
       </c>
       <c r="H131">
+        <v>3767.4</v>
+      </c>
+      <c r="I131">
+        <v>100</v>
+      </c>
+      <c r="J131">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
         <v>1.4710785478547852</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -4501,10 +7686,34 @@
         <v>28.3</v>
       </c>
       <c r="H132">
+        <v>3767.4</v>
+      </c>
+      <c r="I132">
+        <v>100</v>
+      </c>
+      <c r="J132">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
         <v>0.75316101388050694</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>192</v>
       </c>
@@ -4527,10 +7736,34 @@
         <v>28.3</v>
       </c>
       <c r="H133">
+        <v>3767.4</v>
+      </c>
+      <c r="I133">
+        <v>100</v>
+      </c>
+      <c r="J133">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
         <v>1.2692909062793591</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>192</v>
       </c>
@@ -4553,10 +7786,34 @@
         <v>28.3</v>
       </c>
       <c r="H134">
+        <v>3767.4</v>
+      </c>
+      <c r="I134">
+        <v>100</v>
+      </c>
+      <c r="J134">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
         <v>1.1446714737684731</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>192</v>
       </c>
@@ -4579,10 +7836,34 @@
         <v>54.476190000000003</v>
       </c>
       <c r="H135">
+        <v>3767.4</v>
+      </c>
+      <c r="I135">
+        <v>100</v>
+      </c>
+      <c r="J135">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
         <v>2.6693199999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>192</v>
       </c>
@@ -4605,10 +7886,34 @@
         <v>57.5</v>
       </c>
       <c r="H136">
+        <v>3767.4</v>
+      </c>
+      <c r="I136">
+        <v>100</v>
+      </c>
+      <c r="J136">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
         <v>1.982406299810247</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>192</v>
       </c>
@@ -4631,10 +7936,34 @@
         <v>25.8</v>
       </c>
       <c r="H137">
+        <v>3767.4</v>
+      </c>
+      <c r="I137">
+        <v>100</v>
+      </c>
+      <c r="J137">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
         <v>0.28147654199143562</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>182</v>
       </c>
@@ -4657,10 +7986,34 @@
         <v>41.388095</v>
       </c>
       <c r="H138">
+        <v>3767.4</v>
+      </c>
+      <c r="I138">
+        <v>100</v>
+      </c>
+      <c r="J138">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
         <v>2.5848351711758477</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>182</v>
       </c>
@@ -4683,10 +8036,34 @@
         <v>7.5284217</v>
       </c>
       <c r="H139">
+        <v>3767.4</v>
+      </c>
+      <c r="I139">
+        <v>100</v>
+      </c>
+      <c r="J139">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
         <v>2.87032</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>182</v>
       </c>
@@ -4709,10 +8086,34 @@
         <v>8.4665446000000006</v>
       </c>
       <c r="H140">
+        <v>3767.4</v>
+      </c>
+      <c r="I140">
+        <v>100</v>
+      </c>
+      <c r="J140">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
         <v>1.7464883953089594</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -4735,10 +8136,34 @@
         <v>28.3</v>
       </c>
       <c r="H141">
+        <v>3767.4</v>
+      </c>
+      <c r="I141">
+        <v>100</v>
+      </c>
+      <c r="J141">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
         <v>1.0694501281415221</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -4761,10 +8186,34 @@
         <v>13.54</v>
       </c>
       <c r="H142">
+        <v>3767.4</v>
+      </c>
+      <c r="I142">
+        <v>100</v>
+      </c>
+      <c r="J142">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
         <v>0.59883141497608461</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -4787,10 +8236,34 @@
         <v>9.4401215999999994</v>
       </c>
       <c r="H143">
+        <v>3767.4</v>
+      </c>
+      <c r="I143">
+        <v>100</v>
+      </c>
+      <c r="J143">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
         <v>0.31963227828080765</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -4813,10 +8286,34 @@
         <v>10.397479000000001</v>
       </c>
       <c r="H144">
+        <v>3767.4</v>
+      </c>
+      <c r="I144">
+        <v>100</v>
+      </c>
+      <c r="J144">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
         <v>2.8359800000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -4839,10 +8336,34 @@
         <v>9.4401215999999994</v>
       </c>
       <c r="H145">
+        <v>3767.4</v>
+      </c>
+      <c r="I145">
+        <v>100</v>
+      </c>
+      <c r="J145">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
         <v>0.39725005938852392</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -4865,10 +8386,34 @@
         <v>9.4401215999999994</v>
       </c>
       <c r="H146">
+        <v>3767.4</v>
+      </c>
+      <c r="I146">
+        <v>100</v>
+      </c>
+      <c r="J146">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
         <v>0.78070982626583385</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -4891,10 +8436,34 @@
         <v>11.427273</v>
       </c>
       <c r="H147">
+        <v>3767.4</v>
+      </c>
+      <c r="I147">
+        <v>100</v>
+      </c>
+      <c r="J147">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
         <v>1.4592065894962627</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -4917,10 +8486,34 @@
         <v>13.54</v>
       </c>
       <c r="H148">
+        <v>3767.4</v>
+      </c>
+      <c r="I148">
+        <v>100</v>
+      </c>
+      <c r="J148">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
         <v>1.9152957187054078</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -4943,10 +8536,34 @@
         <v>19</v>
       </c>
       <c r="H149">
+        <v>3767.4</v>
+      </c>
+      <c r="I149">
+        <v>100</v>
+      </c>
+      <c r="J149">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
         <v>1.0349699999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4969,10 +8586,34 @@
         <v>19</v>
       </c>
       <c r="H150">
+        <v>3767.4</v>
+      </c>
+      <c r="I150">
+        <v>100</v>
+      </c>
+      <c r="J150">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
         <v>0.63159596567241472</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -4995,10 +8636,34 @@
         <v>52</v>
       </c>
       <c r="H151">
+        <v>3767.4</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
+      <c r="J151">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
         <v>2.0737270811031787</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -5021,10 +8686,34 @@
         <v>52</v>
       </c>
       <c r="H152">
+        <v>3767.4</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
         <v>1.5131148445437872</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -5047,10 +8736,34 @@
         <v>52</v>
       </c>
       <c r="H153">
+        <v>3767.4</v>
+      </c>
+      <c r="I153">
+        <v>100</v>
+      </c>
+      <c r="J153">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
         <v>1.2984737903962218</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -5073,10 +8786,34 @@
         <v>52</v>
       </c>
       <c r="H154">
+        <v>3767.4</v>
+      </c>
+      <c r="I154">
+        <v>100</v>
+      </c>
+      <c r="J154">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
         <v>2.0033100000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -5099,10 +8836,34 @@
         <v>52</v>
       </c>
       <c r="H155">
+        <v>3767.4</v>
+      </c>
+      <c r="I155">
+        <v>100</v>
+      </c>
+      <c r="J155">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
         <v>1.2781284266465642</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -5125,10 +8886,34 @@
         <v>7.2333333</v>
       </c>
       <c r="H156">
+        <v>3767.4</v>
+      </c>
+      <c r="I156">
+        <v>100</v>
+      </c>
+      <c r="J156">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
         <v>0.70455000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -5151,10 +8936,34 @@
         <v>57.5</v>
       </c>
       <c r="H157">
+        <v>3767.4</v>
+      </c>
+      <c r="I157">
+        <v>100</v>
+      </c>
+      <c r="J157">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
         <v>0.81242774725967104</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -5177,10 +8986,34 @@
         <v>7.2333333</v>
       </c>
       <c r="H158">
+        <v>3767.4</v>
+      </c>
+      <c r="I158">
+        <v>100</v>
+      </c>
+      <c r="J158">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
         <v>1.3228599999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -5203,10 +9036,34 @@
         <v>26.5</v>
       </c>
       <c r="H159">
+        <v>3767.4</v>
+      </c>
+      <c r="I159">
+        <v>100</v>
+      </c>
+      <c r="J159">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
         <v>0.87611378729289713</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -5229,10 +9086,34 @@
         <v>57.5</v>
       </c>
       <c r="H160">
+        <v>3767.4</v>
+      </c>
+      <c r="I160">
+        <v>100</v>
+      </c>
+      <c r="J160">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
         <v>0.31607542544486394</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -5255,10 +9136,34 @@
         <v>52</v>
       </c>
       <c r="H161">
+        <v>3767.4</v>
+      </c>
+      <c r="I161">
+        <v>100</v>
+      </c>
+      <c r="J161">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
         <v>1.0493699999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -5281,10 +9186,34 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H162">
+        <v>3767.4</v>
+      </c>
+      <c r="I162">
+        <v>100</v>
+      </c>
+      <c r="J162">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
         <v>0.89268000000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -5307,10 +9236,34 @@
         <v>47</v>
       </c>
       <c r="H163">
+        <v>3767.4</v>
+      </c>
+      <c r="I163">
+        <v>100</v>
+      </c>
+      <c r="J163">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
         <v>2.3654299999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -5333,10 +9286,34 @@
         <v>2</v>
       </c>
       <c r="H164">
+        <v>3767.4</v>
+      </c>
+      <c r="I164">
+        <v>100</v>
+      </c>
+      <c r="J164">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
         <v>0.86329000000000011</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -5359,10 +9336,34 @@
         <v>2</v>
       </c>
       <c r="H165">
+        <v>3767.4</v>
+      </c>
+      <c r="I165">
+        <v>100</v>
+      </c>
+      <c r="J165">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
         <v>2.5111048392666078</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -5385,10 +9386,34 @@
         <v>4.5</v>
       </c>
       <c r="H166">
+        <v>3767.4</v>
+      </c>
+      <c r="I166">
+        <v>100</v>
+      </c>
+      <c r="J166">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
         <v>2.2573324078406918</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -5411,10 +9436,34 @@
         <v>59.805555555555564</v>
       </c>
       <c r="H167">
+        <v>3767.4</v>
+      </c>
+      <c r="I167">
+        <v>100</v>
+      </c>
+      <c r="J167">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
         <v>2.2773467539695802</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -5437,10 +9486,34 @@
         <v>41</v>
       </c>
       <c r="H168">
+        <v>3767.4</v>
+      </c>
+      <c r="I168">
+        <v>100</v>
+      </c>
+      <c r="J168">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
         <v>0.5875349476867332</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -5463,10 +9536,34 @@
         <v>75.416667000000004</v>
       </c>
       <c r="H169">
+        <v>3767.4</v>
+      </c>
+      <c r="I169">
+        <v>100</v>
+      </c>
+      <c r="J169">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
         <v>0.30704883045652531</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -5489,10 +9586,34 @@
         <v>59.805555555555564</v>
       </c>
       <c r="H170">
+        <v>3767.4</v>
+      </c>
+      <c r="I170">
+        <v>100</v>
+      </c>
+      <c r="J170">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
         <v>1.3738786462781685</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -5515,10 +9636,34 @@
         <v>52</v>
       </c>
       <c r="H171">
+        <v>3767.4</v>
+      </c>
+      <c r="I171">
+        <v>100</v>
+      </c>
+      <c r="J171">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
         <v>0.82353417105439364</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -5541,10 +9686,34 @@
         <v>52</v>
       </c>
       <c r="H172">
+        <v>3767.4</v>
+      </c>
+      <c r="I172">
+        <v>100</v>
+      </c>
+      <c r="J172">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
         <v>1.089676251097454</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -5567,10 +9736,34 @@
         <v>52</v>
       </c>
       <c r="H173">
+        <v>3767.4</v>
+      </c>
+      <c r="I173">
+        <v>100</v>
+      </c>
+      <c r="J173">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
         <v>1.3972114656143422</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -5593,10 +9786,34 @@
         <v>9.4401215999999994</v>
       </c>
       <c r="H174">
+        <v>3767.4</v>
+      </c>
+      <c r="I174">
+        <v>100</v>
+      </c>
+      <c r="J174">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
         <v>1.64175</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -5619,10 +9836,34 @@
         <v>9.4401215999999994</v>
       </c>
       <c r="H175">
+        <v>3767.4</v>
+      </c>
+      <c r="I175">
+        <v>100</v>
+      </c>
+      <c r="J175">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
         <v>1.215380551767534</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -5644,15 +9885,40 @@
       <c r="G176" s="4">
         <v>500</v>
       </c>
-      <c r="H176" s="4">
+      <c r="H176">
+        <v>3767.4</v>
+      </c>
+      <c r="I176">
+        <v>100</v>
+      </c>
+      <c r="J176">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176" s="4">
         <v>0.49880000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>